--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N2">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O2">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P2">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q2">
-        <v>113.764213512802</v>
+        <v>114.1407887016107</v>
       </c>
       <c r="R2">
-        <v>1023.877921615218</v>
+        <v>1027.267098314496</v>
       </c>
       <c r="S2">
-        <v>0.03309246006327026</v>
+        <v>0.02642378120123879</v>
       </c>
       <c r="T2">
-        <v>0.03309246006327027</v>
+        <v>0.02642378120123879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q3">
-        <v>551.8415455657588</v>
+        <v>809.4818874751147</v>
       </c>
       <c r="R3">
-        <v>4966.573910091829</v>
+        <v>7285.336987276033</v>
       </c>
       <c r="S3">
-        <v>0.1605231886548681</v>
+        <v>0.1873963946133693</v>
       </c>
       <c r="T3">
-        <v>0.1605231886548681</v>
+        <v>0.1873963946133692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N4">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q4">
-        <v>147.9183014890901</v>
+        <v>52.35862886877867</v>
       </c>
       <c r="R4">
-        <v>1331.26471340181</v>
+        <v>471.2276598190081</v>
       </c>
       <c r="S4">
-        <v>0.04302741902315042</v>
+        <v>0.01212110910537233</v>
       </c>
       <c r="T4">
-        <v>0.04302741902315042</v>
+        <v>0.01212110910537233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N5">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q5">
-        <v>1206.927657529133</v>
+        <v>1886.410829913898</v>
       </c>
       <c r="R5">
-        <v>10862.34891776219</v>
+        <v>16977.69746922509</v>
       </c>
       <c r="S5">
-        <v>0.3510788153213457</v>
+        <v>0.4367072244051241</v>
       </c>
       <c r="T5">
-        <v>0.3510788153213457</v>
+        <v>0.436707224405124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H6">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N6">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q6">
-        <v>139.397547998426</v>
+        <v>41.19131836113067</v>
       </c>
       <c r="R6">
-        <v>1254.577931985834</v>
+        <v>370.7218652501761</v>
       </c>
       <c r="S6">
-        <v>0.04054884789878679</v>
+        <v>0.009535858268953139</v>
       </c>
       <c r="T6">
-        <v>0.04054884789878679</v>
+        <v>0.009535858268953137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N7">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O7">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P7">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q7">
-        <v>27.16889648296166</v>
+        <v>18.58294139148778</v>
       </c>
       <c r="R7">
-        <v>244.5200683466549</v>
+        <v>167.24647252339</v>
       </c>
       <c r="S7">
-        <v>0.007903061903771326</v>
+        <v>0.004301981640303734</v>
       </c>
       <c r="T7">
-        <v>0.007903061903771328</v>
+        <v>0.004301981640303732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q8">
         <v>131.7894737151811</v>
@@ -948,10 +948,10 @@
         <v>1186.10526343663</v>
       </c>
       <c r="S8">
-        <v>0.0383357627237344</v>
+        <v>0.03050948094620286</v>
       </c>
       <c r="T8">
-        <v>0.03833576272373441</v>
+        <v>0.03050948094620284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N9">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q9">
-        <v>35.32549381744167</v>
+        <v>8.524361384524443</v>
       </c>
       <c r="R9">
-        <v>317.929444356975</v>
+        <v>76.71925246071999</v>
       </c>
       <c r="S9">
-        <v>0.0102757049626809</v>
+        <v>0.001973403746962057</v>
       </c>
       <c r="T9">
-        <v>0.0102757049626809</v>
+        <v>0.001973403746962056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N10">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q10">
-        <v>288.2355670321794</v>
+        <v>307.1212516692827</v>
       </c>
       <c r="R10">
-        <v>2594.120103289614</v>
+        <v>2764.091265023544</v>
       </c>
       <c r="S10">
-        <v>0.08384380022767958</v>
+        <v>0.07109907727705411</v>
       </c>
       <c r="T10">
-        <v>0.08384380022767958</v>
+        <v>0.07109907727705408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N11">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q11">
-        <v>33.29058791516833</v>
+        <v>6.706242909746111</v>
       </c>
       <c r="R11">
-        <v>299.615291236515</v>
+        <v>60.356186187715</v>
       </c>
       <c r="S11">
-        <v>0.009683778554330041</v>
+        <v>0.001552506315623432</v>
       </c>
       <c r="T11">
-        <v>0.009683778554330041</v>
+        <v>0.001552506315623432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N12">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O12">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P12">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q12">
-        <v>0.5788687276329999</v>
+        <v>0.05755760456911111</v>
       </c>
       <c r="R12">
-        <v>5.209818548696999</v>
+        <v>0.518018441122</v>
       </c>
       <c r="S12">
-        <v>0.0001683850277654796</v>
+        <v>1.332468057126849E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001683850277654797</v>
+        <v>1.332468057126849E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q13">
-        <v>2.807946396084667</v>
+        <v>0.4081962190304445</v>
       </c>
       <c r="R13">
-        <v>25.271517564762</v>
+        <v>3.673765971274</v>
       </c>
       <c r="S13">
-        <v>0.0008167933579726185</v>
+        <v>9.449809924680509E-05</v>
       </c>
       <c r="T13">
-        <v>0.0008167933579726188</v>
+        <v>9.449809924680504E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H14">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N14">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q14">
-        <v>0.7526556579850001</v>
+        <v>0.02640280736177778</v>
       </c>
       <c r="R14">
-        <v>6.773900921865001</v>
+        <v>0.237625266256</v>
       </c>
       <c r="S14">
-        <v>0.0002189372785534194</v>
+        <v>6.112293534697015E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002189372785534195</v>
+        <v>6.112293534697013E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H15">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N15">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q15">
-        <v>6.141234188555667</v>
+        <v>0.9512575639101111</v>
       </c>
       <c r="R15">
-        <v>55.27110769700099</v>
+        <v>8.561318075191</v>
       </c>
       <c r="S15">
-        <v>0.001786401372177542</v>
+        <v>0.0002202176979913361</v>
       </c>
       <c r="T15">
-        <v>0.001786401372177542</v>
+        <v>0.000220217697991336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H16">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N16">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q16">
-        <v>0.7092993372290001</v>
+        <v>0.02077148441744445</v>
       </c>
       <c r="R16">
-        <v>6.383694035061001</v>
+        <v>0.186943359757</v>
       </c>
       <c r="S16">
-        <v>0.0002063255154268119</v>
+        <v>4.808632967363998E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002063255154268119</v>
+        <v>4.808632967363996E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H17">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N17">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O17">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P17">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q17">
-        <v>39.10117259570866</v>
+        <v>36.77451610005333</v>
       </c>
       <c r="R17">
-        <v>351.910553361378</v>
+        <v>330.97064490048</v>
       </c>
       <c r="S17">
-        <v>0.01137399848859252</v>
+        <v>0.008513361246780402</v>
       </c>
       <c r="T17">
-        <v>0.01137399848859252</v>
+        <v>0.008513361246780399</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H18">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q18">
-        <v>189.6699397145765</v>
+        <v>260.8033906395734</v>
       </c>
       <c r="R18">
-        <v>1707.029457431188</v>
+        <v>2347.23051575616</v>
       </c>
       <c r="S18">
-        <v>0.05517240185993271</v>
+        <v>0.06037641590875086</v>
       </c>
       <c r="T18">
-        <v>0.05517240185993273</v>
+        <v>0.06037641590875084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H19">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N19">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q19">
-        <v>50.84005644655667</v>
+        <v>16.86919515989333</v>
       </c>
       <c r="R19">
-        <v>457.5605080190101</v>
+        <v>151.82275643904</v>
       </c>
       <c r="S19">
-        <v>0.01478867989873422</v>
+        <v>0.003905246555736546</v>
       </c>
       <c r="T19">
-        <v>0.01478867989873422</v>
+        <v>0.003905246555736546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H20">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N20">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q20">
-        <v>414.8254111761638</v>
+        <v>607.7743655454933</v>
       </c>
       <c r="R20">
-        <v>3733.428700585474</v>
+        <v>5469.96928990944</v>
       </c>
       <c r="S20">
-        <v>0.1206670615362896</v>
+        <v>0.1407007699664618</v>
       </c>
       <c r="T20">
-        <v>0.1206670615362896</v>
+        <v>0.1407007699664617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H21">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N21">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q21">
-        <v>47.91144258287934</v>
+        <v>13.27124875765334</v>
       </c>
       <c r="R21">
-        <v>431.2029832459141</v>
+        <v>119.44123881888</v>
       </c>
       <c r="S21">
-        <v>0.01393678601811968</v>
+        <v>0.003072316018037953</v>
       </c>
       <c r="T21">
-        <v>0.01393678601811968</v>
+        <v>0.003072316018037952</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H22">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N22">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O22">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P22">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q22">
-        <v>0.4619933700519999</v>
+        <v>0.2499730163897778</v>
       </c>
       <c r="R22">
-        <v>4.157940330468</v>
+        <v>2.249757147508</v>
       </c>
       <c r="S22">
-        <v>0.0001343875782714484</v>
+        <v>5.786916637280918E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001343875782714484</v>
+        <v>5.786916637280916E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H23">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q23">
-        <v>2.241013474258667</v>
+        <v>1.772798588715111</v>
       </c>
       <c r="R23">
-        <v>20.169121268328</v>
+        <v>15.955187298436</v>
       </c>
       <c r="S23">
-        <v>0.0006518802935319382</v>
+        <v>0.0004104058028242098</v>
       </c>
       <c r="T23">
-        <v>0.0006518802935319384</v>
+        <v>0.0004104058028242097</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H24">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N24">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q24">
-        <v>0.6006921903400001</v>
+        <v>0.1146675482204445</v>
       </c>
       <c r="R24">
-        <v>5.406229713060001</v>
+        <v>1.032007933984</v>
       </c>
       <c r="S24">
-        <v>0.0001747331757970432</v>
+        <v>2.654572690031506E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001747331757970432</v>
+        <v>2.654572690031505E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H25">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N25">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q25">
-        <v>4.901300318382667</v>
+        <v>4.131317215063778</v>
       </c>
       <c r="R25">
-        <v>44.11170286544399</v>
+        <v>37.18185493557399</v>
       </c>
       <c r="S25">
-        <v>0.001425721499194649</v>
+        <v>0.0009564067622586525</v>
       </c>
       <c r="T25">
-        <v>0.001425721499194649</v>
+        <v>0.0009564067622586523</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H26">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N26">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q26">
-        <v>0.566089642676</v>
+        <v>0.09021067943311112</v>
       </c>
       <c r="R26">
-        <v>5.094806784084001</v>
+        <v>0.8118961148980001</v>
       </c>
       <c r="S26">
-        <v>0.0001646677660227343</v>
+        <v>2.088392136125115E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001646677660227343</v>
+        <v>2.088392136125114E-05</v>
       </c>
     </row>
   </sheetData>
